--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tff3</t>
+  </si>
+  <si>
+    <t>Cxcr4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tff3</t>
-  </si>
-  <si>
-    <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4482143333333333</v>
+        <v>1.461763666666667</v>
       </c>
       <c r="H2">
-        <v>1.344643</v>
+        <v>4.385291</v>
       </c>
       <c r="I2">
-        <v>0.3182853663951962</v>
+        <v>0.4829359810344849</v>
       </c>
       <c r="J2">
-        <v>0.3182853663951962</v>
+        <v>0.482935981034485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N2">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O2">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P2">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q2">
-        <v>10.60525252910089</v>
+        <v>37.56601551857889</v>
       </c>
       <c r="R2">
-        <v>95.447272761908</v>
+        <v>338.09413966721</v>
       </c>
       <c r="S2">
-        <v>0.02820391724596609</v>
+        <v>0.04231119649631791</v>
       </c>
       <c r="T2">
-        <v>0.0282039172459661</v>
+        <v>0.04231119649631791</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4482143333333333</v>
+        <v>1.461763666666667</v>
       </c>
       <c r="H3">
-        <v>1.344643</v>
+        <v>4.385291</v>
       </c>
       <c r="I3">
-        <v>0.3182853663951962</v>
+        <v>0.4829359810344849</v>
       </c>
       <c r="J3">
-        <v>0.3182853663951962</v>
+        <v>0.482935981034485</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.486704</v>
       </c>
       <c r="O3">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P3">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q3">
-        <v>0.07271590296355555</v>
+        <v>0.2371487412071112</v>
       </c>
       <c r="R3">
-        <v>0.654443126672</v>
+        <v>2.134338670864</v>
       </c>
       <c r="S3">
-        <v>0.0001933827887664353</v>
+        <v>0.0002671043721180922</v>
       </c>
       <c r="T3">
-        <v>0.0001933827887664353</v>
+        <v>0.0002671043721180923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4482143333333333</v>
+        <v>1.461763666666667</v>
       </c>
       <c r="H4">
-        <v>1.344643</v>
+        <v>4.385291</v>
       </c>
       <c r="I4">
-        <v>0.3182853663951962</v>
+        <v>0.4829359810344849</v>
       </c>
       <c r="J4">
-        <v>0.3182853663951962</v>
+        <v>0.482935981034485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N4">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O4">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P4">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q4">
-        <v>5.374529704332444</v>
+        <v>68.59648958152758</v>
       </c>
       <c r="R4">
-        <v>48.370767338992</v>
+        <v>617.3684062337481</v>
       </c>
       <c r="S4">
-        <v>0.01429318072351739</v>
+        <v>0.07726130944619898</v>
       </c>
       <c r="T4">
-        <v>0.01429318072351739</v>
+        <v>0.07726130944619901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4482143333333333</v>
+        <v>1.461763666666667</v>
       </c>
       <c r="H5">
-        <v>1.344643</v>
+        <v>4.385291</v>
       </c>
       <c r="I5">
-        <v>0.3182853663951962</v>
+        <v>0.4829359810344849</v>
       </c>
       <c r="J5">
-        <v>0.3182853663951962</v>
+        <v>0.482935981034485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N5">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O5">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P5">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q5">
-        <v>103.6293410032086</v>
+        <v>322.3752818804964</v>
       </c>
       <c r="R5">
-        <v>932.6640690288771</v>
+        <v>2901.377536924467</v>
       </c>
       <c r="S5">
-        <v>0.2755948856369463</v>
+        <v>0.3630963707198499</v>
       </c>
       <c r="T5">
-        <v>0.2755948856369463</v>
+        <v>0.36309637071985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2167346666666667</v>
+        <v>0.4482143333333333</v>
       </c>
       <c r="H6">
-        <v>0.650204</v>
+        <v>1.344643</v>
       </c>
       <c r="I6">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="J6">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N6">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O6">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P6">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q6">
-        <v>5.128184667180444</v>
+        <v>11.51870646781444</v>
       </c>
       <c r="R6">
-        <v>46.153662004624</v>
+        <v>103.66835821033</v>
       </c>
       <c r="S6">
-        <v>0.01363804356174549</v>
+        <v>0.01297370099051543</v>
       </c>
       <c r="T6">
-        <v>0.01363804356174549</v>
+        <v>0.01297370099051543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2167346666666667</v>
+        <v>0.4482143333333333</v>
       </c>
       <c r="H7">
-        <v>0.650204</v>
+        <v>1.344643</v>
       </c>
       <c r="I7">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="J7">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.486704</v>
       </c>
       <c r="O7">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P7">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q7">
-        <v>0.03516187640177778</v>
+        <v>0.07271590296355555</v>
       </c>
       <c r="R7">
-        <v>0.316456887616</v>
+        <v>0.654443126672</v>
       </c>
       <c r="S7">
-        <v>9.351051750322674E-05</v>
+        <v>8.190106978943652E-05</v>
       </c>
       <c r="T7">
-        <v>9.351051750322673E-05</v>
+        <v>8.190106978943653E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2167346666666667</v>
+        <v>0.4482143333333333</v>
       </c>
       <c r="H8">
-        <v>0.650204</v>
+        <v>1.344643</v>
       </c>
       <c r="I8">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="J8">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N8">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O8">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P8">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q8">
-        <v>2.598861342286222</v>
+        <v>21.03344784653378</v>
       </c>
       <c r="R8">
-        <v>23.389752080576</v>
+        <v>189.301030618804</v>
       </c>
       <c r="S8">
-        <v>0.006911487494564654</v>
+        <v>0.02369030445588795</v>
       </c>
       <c r="T8">
-        <v>0.006911487494564653</v>
+        <v>0.02369030445588795</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2167346666666667</v>
+        <v>0.4482143333333333</v>
       </c>
       <c r="H9">
-        <v>0.650204</v>
+        <v>1.344643</v>
       </c>
       <c r="I9">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="J9">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N9">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O9">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P9">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q9">
-        <v>50.11011252626178</v>
+        <v>98.84855216076566</v>
       </c>
       <c r="R9">
-        <v>450.991012736356</v>
+        <v>889.6369694468909</v>
       </c>
       <c r="S9">
-        <v>0.1332642917270123</v>
+        <v>0.111334685249816</v>
       </c>
       <c r="T9">
-        <v>0.1332642917270123</v>
+        <v>0.1113346852498161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7432663333333333</v>
+        <v>1.116849</v>
       </c>
       <c r="H10">
-        <v>2.229799</v>
+        <v>3.350547</v>
       </c>
       <c r="I10">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="J10">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N10">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O10">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P10">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q10">
-        <v>17.58651291393822</v>
+        <v>28.70201785873</v>
       </c>
       <c r="R10">
-        <v>158.278616225444</v>
+        <v>258.31816072857</v>
       </c>
       <c r="S10">
-        <v>0.046770084305751</v>
+        <v>0.0323275359576248</v>
       </c>
       <c r="T10">
-        <v>0.046770084305751</v>
+        <v>0.03232753595762481</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7432663333333333</v>
+        <v>1.116849</v>
       </c>
       <c r="H11">
-        <v>2.229799</v>
+        <v>3.350547</v>
       </c>
       <c r="I11">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="J11">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.486704</v>
       </c>
       <c r="O11">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P11">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q11">
-        <v>0.1205835658328889</v>
+        <v>0.181191625232</v>
       </c>
       <c r="R11">
-        <v>1.085252092496</v>
+        <v>1.630724627088</v>
       </c>
       <c r="S11">
-        <v>0.0003206834446084267</v>
+        <v>0.0002040789887574524</v>
       </c>
       <c r="T11">
-        <v>0.0003206834446084267</v>
+        <v>0.0002040789887574525</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.7432663333333333</v>
+        <v>1.116849</v>
       </c>
       <c r="H12">
-        <v>2.229799</v>
+        <v>3.350547</v>
       </c>
       <c r="I12">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="J12">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N12">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O12">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P12">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q12">
-        <v>8.91249272869511</v>
+        <v>52.41060681672401</v>
       </c>
       <c r="R12">
-        <v>80.21243455825599</v>
+        <v>471.695461350516</v>
       </c>
       <c r="S12">
-        <v>0.02370214256432253</v>
+        <v>0.0590308940914146</v>
       </c>
       <c r="T12">
-        <v>0.02370214256432254</v>
+        <v>0.05903089409141461</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.7432663333333333</v>
+        <v>1.116849</v>
       </c>
       <c r="H13">
-        <v>2.229799</v>
+        <v>3.350547</v>
       </c>
       <c r="I13">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="J13">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N13">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O13">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P13">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q13">
-        <v>171.8468031586179</v>
+        <v>246.308291417571</v>
       </c>
       <c r="R13">
-        <v>1546.621228427561</v>
+        <v>2216.774622758139</v>
       </c>
       <c r="S13">
-        <v>0.4570143899892962</v>
+        <v>0.2774209181617094</v>
       </c>
       <c r="T13">
-        <v>0.4570143899892962</v>
+        <v>0.2774209181617094</v>
       </c>
     </row>
   </sheetData>
